--- a/data/trans_orig/P36BPD09_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>47641</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28551</v>
+        <v>29186</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71382</v>
+        <v>73421</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1168274127865798</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07001250209829708</v>
+        <v>0.0715706964975692</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1750445669423513</v>
+        <v>0.1800448133054755</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -762,19 +762,19 @@
         <v>40233</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26073</v>
+        <v>25615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58558</v>
+        <v>59544</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1114444567242093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07222133024139386</v>
+        <v>0.07095358765603642</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1622050807659104</v>
+        <v>0.1649338121569862</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -783,19 +783,19 @@
         <v>87875</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63596</v>
+        <v>64497</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114804</v>
+        <v>115031</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1142996970500331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08272032270784208</v>
+        <v>0.08389174329737939</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1493269071969706</v>
+        <v>0.1496221256355144</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>283438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>250066</v>
+        <v>249824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>310722</v>
+        <v>312009</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6950547540903119</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6132184445388086</v>
+        <v>0.6126249987400588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7619602022340842</v>
+        <v>0.7651170973019124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>136</v>
@@ -833,19 +833,19 @@
         <v>243644</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217950</v>
+        <v>218065</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>266402</v>
+        <v>266892</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6748854897424366</v>
+        <v>0.6748854897424363</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6037155997167065</v>
+        <v>0.604033106959342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7379258797864321</v>
+        <v>0.7392812387856683</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>258</v>
@@ -854,19 +854,19 @@
         <v>527083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>486280</v>
+        <v>487974</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>561461</v>
+        <v>562520</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6855837187900081</v>
+        <v>0.6855837187900083</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6325106495988533</v>
+        <v>0.634714757844542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7303001911723149</v>
+        <v>0.731677394692598</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>76713</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53249</v>
+        <v>53790</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101875</v>
+        <v>106542</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1881178331231084</v>
+        <v>0.1881178331231085</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1305775008405791</v>
+        <v>0.131905616298323</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2498205072026768</v>
+        <v>0.2612645118772391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -904,19 +904,19 @@
         <v>77138</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57463</v>
+        <v>58040</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>99181</v>
+        <v>98107</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2136700535333543</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1591706352364419</v>
+        <v>0.1607701724691719</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2747295680155243</v>
+        <v>0.2717533420940716</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>78</v>
@@ -925,19 +925,19 @@
         <v>153851</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>123813</v>
+        <v>125302</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>191298</v>
+        <v>192185</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2001165841599587</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1610445761548981</v>
+        <v>0.1629814965839516</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2488238737639117</v>
+        <v>0.2499777732368116</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>51427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36028</v>
+        <v>34770</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75118</v>
+        <v>75403</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1078392366811353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0755481624058757</v>
+        <v>0.07290943331589607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1575172962994715</v>
+        <v>0.1581144161084489</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -1050,19 +1050,19 @@
         <v>50809</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38979</v>
+        <v>38814</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67311</v>
+        <v>67708</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1013979031094126</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07779030114442199</v>
+        <v>0.07745974973284345</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1343316359180809</v>
+        <v>0.13512413680293</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>74</v>
@@ -1071,19 +1071,19 @@
         <v>102236</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83252</v>
+        <v>79400</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>128207</v>
+        <v>128422</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1045388979622556</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08512747338377419</v>
+        <v>0.08118845947205934</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1310948090425416</v>
+        <v>0.1313141199611964</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>309469</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>282353</v>
+        <v>281302</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>339280</v>
+        <v>337424</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6489307794640161</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5920711981363286</v>
+        <v>0.5898668027478297</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7114424090651373</v>
+        <v>0.7075507582014211</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>310</v>
@@ -1121,19 +1121,19 @@
         <v>336170</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>313859</v>
+        <v>311015</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>356988</v>
+        <v>357796</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6708872130739414</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6263610194190184</v>
+        <v>0.6206851174685848</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7124322351331142</v>
+        <v>0.7140444191900369</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>515</v>
@@ -1142,19 +1142,19 @@
         <v>645639</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>608760</v>
+        <v>608675</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>681865</v>
+        <v>680536</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6601805722537363</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6224707130277396</v>
+        <v>0.6223838326939436</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6972223829801155</v>
+        <v>0.6958640117427454</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>115994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89662</v>
+        <v>91434</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138740</v>
+        <v>141400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2432299838548485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1880144894427364</v>
+        <v>0.1917294511530744</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2909270776905197</v>
+        <v>0.2965050480630638</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -1192,19 +1192,19 @@
         <v>114104</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94866</v>
+        <v>94132</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136152</v>
+        <v>134419</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.227714883816646</v>
+        <v>0.2277148838166459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1893209433253667</v>
+        <v>0.1878567987515519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2717159779180855</v>
+        <v>0.2682574253201711</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -1213,19 +1213,19 @@
         <v>230098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>197981</v>
+        <v>201238</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>263273</v>
+        <v>266076</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2352805297840081</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2024400349597942</v>
+        <v>0.2057704395284969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2692024228472504</v>
+        <v>0.2720691679656738</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>47149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33862</v>
+        <v>34418</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64255</v>
+        <v>62916</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07594413432046339</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05454245276974626</v>
+        <v>0.05543752005263301</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1034978329737312</v>
+        <v>0.1013407023169104</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>62</v>
@@ -1338,19 +1338,19 @@
         <v>48737</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38311</v>
+        <v>37835</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63036</v>
+        <v>62419</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.07848449864278408</v>
+        <v>0.07848449864278406</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06169527768684742</v>
+        <v>0.06092824750206493</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1015122879340943</v>
+        <v>0.1005185637435888</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>100</v>
@@ -1359,19 +1359,19 @@
         <v>95886</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>76419</v>
+        <v>78650</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>113651</v>
+        <v>117735</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07721445509778618</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06153842932090453</v>
+        <v>0.06333541764129628</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09152061525960355</v>
+        <v>0.09480930281945715</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>399593</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>371639</v>
+        <v>376845</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>424082</v>
+        <v>425422</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.643636466714621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5986101553379043</v>
+        <v>0.6069950268114522</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6830811732774882</v>
+        <v>0.6852392538639487</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>582</v>
@@ -1409,19 +1409,19 @@
         <v>420683</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>400762</v>
+        <v>398788</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>438957</v>
+        <v>439784</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6774591990288624</v>
+        <v>0.6774591990288623</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6453793144724507</v>
+        <v>0.6421990975226282</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7068868853293701</v>
+        <v>0.7082179347345652</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>941</v>
@@ -1430,19 +1430,19 @@
         <v>820277</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>788931</v>
+        <v>786616</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>853766</v>
+        <v>851748</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6605496784248839</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6353074694697249</v>
+        <v>0.6334434466166469</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6875182628922198</v>
+        <v>0.6858931585392309</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>174095</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>150924</v>
+        <v>151100</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200248</v>
+        <v>197756</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2804193989649157</v>
+        <v>0.2804193989649156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2430983335727563</v>
+        <v>0.2433815120310009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3225454444664189</v>
+        <v>0.3185319660255936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>200</v>
@@ -1480,19 +1480,19 @@
         <v>151552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>135200</v>
+        <v>134577</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>171185</v>
+        <v>171718</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2440563023283537</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2177239846405823</v>
+        <v>0.2167203268988638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.275672304113002</v>
+        <v>0.2765311834072775</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>349</v>
@@ -1501,19 +1501,19 @@
         <v>325647</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>295159</v>
+        <v>295940</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>356062</v>
+        <v>355351</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2622358664773299</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2376844252817938</v>
+        <v>0.2383134994272443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2867281286146683</v>
+        <v>0.2861555315730753</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>37803</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27977</v>
+        <v>26656</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52985</v>
+        <v>50906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05402401627217371</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.039981348967331</v>
+        <v>0.03809409953906319</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07571918027133129</v>
+        <v>0.07274843520494217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -1626,19 +1626,19 @@
         <v>46883</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36397</v>
+        <v>36483</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58090</v>
+        <v>58445</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06371632050840376</v>
+        <v>0.06371632050840374</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04946567973731629</v>
+        <v>0.04958230214048606</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07894702566401919</v>
+        <v>0.07942874113671251</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -1647,19 +1647,19 @@
         <v>84687</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68653</v>
+        <v>69514</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103214</v>
+        <v>102265</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05899189741956701</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04782288535376666</v>
+        <v>0.04842299139302265</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07189778383336694</v>
+        <v>0.07123709070213353</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>467138</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>440662</v>
+        <v>440712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>491561</v>
+        <v>491200</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6675761153425576</v>
+        <v>0.6675761153425575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6297400247270896</v>
+        <v>0.6298119879385351</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7024793216995223</v>
+        <v>0.7019636333430953</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>749</v>
@@ -1697,19 +1697,19 @@
         <v>476197</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>454792</v>
+        <v>455502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>494379</v>
+        <v>496207</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6471725094204058</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.618083268990715</v>
+        <v>0.6190470182923445</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6718837853968636</v>
+        <v>0.6743676202462161</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1198</v>
@@ -1718,19 +1718,19 @@
         <v>943334</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>907255</v>
+        <v>907406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>975440</v>
+        <v>972742</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6571180563785597</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6319854929513282</v>
+        <v>0.632090600733941</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6794824435569093</v>
+        <v>0.6776032143691413</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>194811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>172251</v>
+        <v>170795</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>220512</v>
+        <v>218777</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2783998683852687</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2461602805125968</v>
+        <v>0.2440786963152548</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3151286980148362</v>
+        <v>0.3126498127107829</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>322</v>
@@ -1768,19 +1768,19 @@
         <v>212731</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>194859</v>
+        <v>194922</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>233033</v>
+        <v>233235</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2891111700711904</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2648220052508843</v>
+        <v>0.264907786009606</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3167018790469396</v>
+        <v>0.3169761658184956</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>501</v>
@@ -1789,19 +1789,19 @@
         <v>407542</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>376329</v>
+        <v>377973</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>442968</v>
+        <v>441053</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2838900462018732</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2621472885540718</v>
+        <v>0.2632925326346713</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3085674009020686</v>
+        <v>0.3072333754527561</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>48536</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35662</v>
+        <v>37359</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64342</v>
+        <v>63774</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07991904141434872</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0587204845471561</v>
+        <v>0.06151400361178722</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1059448557543049</v>
+        <v>0.1050089433555714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -1914,19 +1914,19 @@
         <v>36436</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28415</v>
+        <v>28350</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47625</v>
+        <v>47219</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05991170753647518</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0467232313760711</v>
+        <v>0.04661526463118779</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07830993047727573</v>
+        <v>0.07764133788939277</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>107</v>
@@ -1935,19 +1935,19 @@
         <v>84973</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>71353</v>
+        <v>70266</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102557</v>
+        <v>101814</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06990842541886801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05870320946741587</v>
+        <v>0.05780900408835209</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08437559237120608</v>
+        <v>0.08376369788685857</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>372247</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>345939</v>
+        <v>349777</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>395939</v>
+        <v>394839</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6129342540849114</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5696149886984402</v>
+        <v>0.5759358899123872</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6519450886469277</v>
+        <v>0.6501336028143492</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>656</v>
@@ -1985,19 +1985,19 @@
         <v>391930</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>372249</v>
+        <v>373408</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>409400</v>
+        <v>408465</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6444464930988021</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6120852761480614</v>
+        <v>0.6139907303467144</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6731725122541858</v>
+        <v>0.6716344658710868</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1072</v>
@@ -2006,19 +2006,19 @@
         <v>764177</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>734371</v>
+        <v>734087</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>793778</v>
+        <v>794195</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6287013185949277</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6041793074031053</v>
+        <v>0.6039456488511485</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6530543683029552</v>
+        <v>0.6533980143274228</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>186536</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>163934</v>
+        <v>165362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>210387</v>
+        <v>211756</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3071467045007399</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2699296858897438</v>
+        <v>0.2722814488932577</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.346418851491462</v>
+        <v>0.3486725738304984</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>289</v>
@@ -2056,19 +2056,19 @@
         <v>179799</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>162947</v>
+        <v>163157</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>198206</v>
+        <v>199194</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2956417993647226</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2679327404775752</v>
+        <v>0.2682783419003032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3259084287898009</v>
+        <v>0.3275324166815817</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>483</v>
@@ -2077,19 +2077,19 @@
         <v>366335</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>337168</v>
+        <v>337777</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>394736</v>
+        <v>396251</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3013902559862043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2773939848895656</v>
+        <v>0.2778950558526002</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3247555641625774</v>
+        <v>0.3260025498035458</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>23445</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16641</v>
+        <v>17008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32526</v>
+        <v>32226</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0577996115076175</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04102561385860778</v>
+        <v>0.04193062873217077</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08018624538093187</v>
+        <v>0.07944757637558988</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2202,19 +2202,19 @@
         <v>25839</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19163</v>
+        <v>19518</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33906</v>
+        <v>34088</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05913928735319062</v>
+        <v>0.05913928735319064</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0438598206348757</v>
+        <v>0.04467266499494149</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07760355040948608</v>
+        <v>0.07801970055630467</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>80</v>
@@ -2223,19 +2223,19 @@
         <v>49284</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39945</v>
+        <v>39691</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61535</v>
+        <v>62775</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0584943159147893</v>
+        <v>0.05849431591478931</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04741044729584261</v>
+        <v>0.04710878191819082</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07303542668926705</v>
+        <v>0.07450726460119701</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>262691</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>245692</v>
+        <v>247138</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>278449</v>
+        <v>278352</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6476080819351222</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6057008554648809</v>
+        <v>0.6092677538506887</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6864565487197944</v>
+        <v>0.6862175359673856</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>497</v>
@@ -2273,19 +2273,19 @@
         <v>264808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>249780</v>
+        <v>248568</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>279176</v>
+        <v>278307</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.606092745878188</v>
+        <v>0.6060927458781882</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.57169719617793</v>
+        <v>0.5689222043159506</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6389782738746492</v>
+        <v>0.6369894378181906</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>868</v>
@@ -2294,19 +2294,19 @@
         <v>527499</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>504138</v>
+        <v>502588</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>548048</v>
+        <v>549785</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6260798241709226</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.598353718427642</v>
+        <v>0.5965141053326256</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6504691580321185</v>
+        <v>0.6525310479662699</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>119496</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>104405</v>
+        <v>104221</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>134936</v>
+        <v>134737</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2945923065572604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2573894925916831</v>
+        <v>0.2569360835277599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3326559901491856</v>
+        <v>0.3321662023249929</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>280</v>
@@ -2344,19 +2344,19 @@
         <v>146263</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>131267</v>
+        <v>133147</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>160593</v>
+        <v>161549</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3347679667686213</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3004440880795037</v>
+        <v>0.304748115510993</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3675657245762841</v>
+        <v>0.3697529517182565</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>443</v>
@@ -2365,19 +2365,19 @@
         <v>265760</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>245272</v>
+        <v>244587</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>287018</v>
+        <v>288651</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3154258599142882</v>
+        <v>0.3154258599142881</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2911092704605227</v>
+        <v>0.2902965067525399</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3406575564339009</v>
+        <v>0.3425958311758842</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>17710</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11668</v>
+        <v>11374</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26334</v>
+        <v>26474</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05732574451713714</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03777037664200905</v>
+        <v>0.03681722813209105</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08524203320298365</v>
+        <v>0.08569548740805651</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>58</v>
@@ -2490,19 +2490,19 @@
         <v>32104</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25008</v>
+        <v>24568</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>42116</v>
+        <v>41913</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06915385309891671</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05386812909503044</v>
+        <v>0.05291968181179461</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09071841262189151</v>
+        <v>0.09028241587347452</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>82</v>
@@ -2511,19 +2511,19 @@
         <v>49814</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39849</v>
+        <v>39961</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>62527</v>
+        <v>61313</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06442781798849548</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05153916242543468</v>
+        <v>0.05168373944991519</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08087079522692968</v>
+        <v>0.07930088432943116</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>191826</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>177415</v>
+        <v>176293</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>205958</v>
+        <v>206380</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6209352308239445</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5742884455379388</v>
+        <v>0.5706580069114535</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.666681425017155</v>
+        <v>0.668048704090059</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>524</v>
@@ -2561,19 +2561,19 @@
         <v>278519</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>264540</v>
+        <v>262486</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>296671</v>
+        <v>294650</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5999395275658974</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5698290885542141</v>
+        <v>0.565403496167457</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6390406353997362</v>
+        <v>0.6346860507801596</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>810</v>
@@ -2582,19 +2582,19 @@
         <v>470344</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>450105</v>
+        <v>449922</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>491628</v>
+        <v>490373</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6083285637401483</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5821509475452961</v>
+        <v>0.5819144895873497</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6358566807472601</v>
+        <v>0.6342329135639987</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>99395</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>86536</v>
+        <v>87156</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>114544</v>
+        <v>115566</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3217390246589183</v>
+        <v>0.3217390246589182</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2801152093558908</v>
+        <v>0.2821215222130559</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.370778068422285</v>
+        <v>0.3740849113369546</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>298</v>
@@ -2632,19 +2632,19 @@
         <v>153622</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>139065</v>
+        <v>137315</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>167786</v>
+        <v>169160</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3309066193351859</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2995511286607929</v>
+        <v>0.2957820645498005</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3614174860277337</v>
+        <v>0.3643758019543697</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>444</v>
@@ -2653,19 +2653,19 @@
         <v>253017</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>232944</v>
+        <v>233847</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>274124</v>
+        <v>272512</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3272436182713563</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.30128277055584</v>
+        <v>0.3024502678534016</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3545429267881297</v>
+        <v>0.3524577376581317</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>273713</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>238653</v>
+        <v>239993</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>312793</v>
+        <v>313284</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07760156462450424</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06766166079588075</v>
+        <v>0.06804162844948849</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08868145421281176</v>
+        <v>0.0888206867104557</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>359</v>
@@ -2778,19 +2778,19 @@
         <v>281041</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>251264</v>
+        <v>251248</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>312599</v>
+        <v>309982</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07538242241446128</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06739536417506226</v>
+        <v>0.06739109102893839</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0838470552163522</v>
+        <v>0.08314511597496409</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>589</v>
@@ -2799,19 +2799,19 @@
         <v>554754</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>504689</v>
+        <v>508282</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>603421</v>
+        <v>608796</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07646124699927805</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06956092147228661</v>
+        <v>0.07005617471185294</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08316907014188057</v>
+        <v>0.08390981989362568</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>2286401</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2225500</v>
+        <v>2222512</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2347546</v>
+        <v>2348616</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6482284141425443</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.63096188311459</v>
+        <v>0.6301148047923653</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6655637030444459</v>
+        <v>0.6658672810261406</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3454</v>
@@ -2849,19 +2849,19 @@
         <v>2411951</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2361911</v>
+        <v>2355592</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2469742</v>
+        <v>2459190</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6469475534164036</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6335253990374955</v>
+        <v>0.6318305728332581</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6624484813070527</v>
+        <v>0.6596182952007672</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5662</v>
@@ -2870,19 +2870,19 @@
         <v>4698353</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4609886</v>
+        <v>4619552</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4775805</v>
+        <v>4776977</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6475702372781378</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6353769023368884</v>
+        <v>0.6367092692894889</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6582454192136258</v>
+        <v>0.6584069341484361</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>967040</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>911619</v>
+        <v>911528</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1024376</v>
+        <v>1028270</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2741700212329515</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2584575073554385</v>
+        <v>0.2584315616271652</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2904255573935544</v>
+        <v>0.2915295231834183</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1540</v>
@@ -2920,19 +2920,19 @@
         <v>1035210</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>986517</v>
+        <v>990936</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1086012</v>
+        <v>1087355</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.277670024169135</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.264609368880815</v>
+        <v>0.2657946464397696</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2912964427728247</v>
+        <v>0.2916565656052375</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2471</v>
@@ -2941,19 +2941,19 @@
         <v>2002250</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1928983</v>
+        <v>1930248</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2080509</v>
+        <v>2076204</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2759685157225842</v>
+        <v>0.2759685157225841</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2658702143045646</v>
+        <v>0.2660445435118779</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2867549726242108</v>
+        <v>0.2861615260465598</v>
       </c>
     </row>
     <row r="35">
